--- a/3. Resultados/1. reporte_de_ventas_NOV_1_15 - NOMINA/Marinela Olaya.xlsx
+++ b/3. Resultados/1. reporte_de_ventas_NOV_1_15 - NOMINA/Marinela Olaya.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I54"/>
+  <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -398,11 +398,6 @@
           <t>Revisar</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Observación</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1893,11 +1888,6 @@
       </c>
       <c r="G53">
         <v>-115254</v>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>pago acueducto</t>
-        </is>
       </c>
     </row>
     <row r="54">

--- a/3. Resultados/1. reporte_de_ventas_NOV_1_15 - NOMINA/Marinela Olaya.xlsx
+++ b/3. Resultados/1. reporte_de_ventas_NOV_1_15 - NOMINA/Marinela Olaya.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H54"/>
+  <dimension ref="A1:L55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -385,15 +385,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Porc_trans</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Cost_trans</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Porc_producto</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>Valor_producto</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Valor_Neto</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Part_profesional</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Revisar</t>
         </is>
@@ -424,9 +444,21 @@
         <v>22000</v>
       </c>
       <c r="F2">
+        <v>0.036</v>
+      </c>
+      <c r="G2">
+        <v>791.9999999999999</v>
+      </c>
+      <c r="H2">
+        <v>0.25</v>
+      </c>
+      <c r="I2">
         <v>5500</v>
       </c>
-      <c r="G2">
+      <c r="J2">
+        <v>15708</v>
+      </c>
+      <c r="K2">
         <v>8800</v>
       </c>
     </row>
@@ -455,9 +487,21 @@
         <v>28000</v>
       </c>
       <c r="F3">
+        <v>0.036</v>
+      </c>
+      <c r="G3">
+        <v>1008</v>
+      </c>
+      <c r="H3">
+        <v>0.26</v>
+      </c>
+      <c r="I3">
         <v>7280</v>
       </c>
-      <c r="G3">
+      <c r="J3">
+        <v>19712</v>
+      </c>
+      <c r="K3">
         <v>12600</v>
       </c>
     </row>
@@ -486,9 +530,21 @@
         <v>34000</v>
       </c>
       <c r="F4">
+        <v>0.036</v>
+      </c>
+      <c r="G4">
+        <v>1224</v>
+      </c>
+      <c r="H4">
+        <v>0.26</v>
+      </c>
+      <c r="I4">
         <v>8840</v>
       </c>
-      <c r="G4">
+      <c r="J4">
+        <v>23936</v>
+      </c>
+      <c r="K4">
         <v>15300</v>
       </c>
     </row>
@@ -517,9 +573,21 @@
         <v>130000</v>
       </c>
       <c r="F5">
+        <v>0.036</v>
+      </c>
+      <c r="G5">
+        <v>4680</v>
+      </c>
+      <c r="H5">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="I5">
         <v>72800</v>
       </c>
-      <c r="G5">
+      <c r="J5">
+        <v>52520</v>
+      </c>
+      <c r="K5">
         <v>10400</v>
       </c>
     </row>
@@ -548,9 +616,21 @@
         <v>15000</v>
       </c>
       <c r="F6">
+        <v>0.036</v>
+      </c>
+      <c r="G6">
+        <v>540</v>
+      </c>
+      <c r="H6">
+        <v>0.26</v>
+      </c>
+      <c r="I6">
         <v>3900</v>
       </c>
-      <c r="G6">
+      <c r="J6">
+        <v>10560</v>
+      </c>
+      <c r="K6">
         <v>6750</v>
       </c>
     </row>
@@ -579,9 +659,21 @@
         <v>32000</v>
       </c>
       <c r="F7">
+        <v>0.036</v>
+      </c>
+      <c r="G7">
+        <v>1152</v>
+      </c>
+      <c r="H7">
+        <v>0.26</v>
+      </c>
+      <c r="I7">
         <v>8320</v>
       </c>
-      <c r="G7">
+      <c r="J7">
+        <v>22528</v>
+      </c>
+      <c r="K7">
         <v>14400</v>
       </c>
     </row>
@@ -610,9 +702,21 @@
         <v>32000</v>
       </c>
       <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0.26</v>
+      </c>
+      <c r="I8">
         <v>8320</v>
       </c>
-      <c r="G8">
+      <c r="J8">
+        <v>23680</v>
+      </c>
+      <c r="K8">
         <v>14400</v>
       </c>
     </row>
@@ -641,9 +745,18 @@
         <v>5000</v>
       </c>
       <c r="F9">
+        <v>0.036</v>
+      </c>
+      <c r="G9">
+        <v>180</v>
+      </c>
+      <c r="I9">
         <v>0</v>
       </c>
-      <c r="G9">
+      <c r="J9">
+        <v>4820</v>
+      </c>
+      <c r="K9">
         <v>4820</v>
       </c>
     </row>
@@ -672,9 +785,21 @@
         <v>45000</v>
       </c>
       <c r="F10">
+        <v>0.036</v>
+      </c>
+      <c r="G10">
+        <v>1620</v>
+      </c>
+      <c r="H10">
+        <v>0.25</v>
+      </c>
+      <c r="I10">
         <v>11250</v>
       </c>
-      <c r="G10">
+      <c r="J10">
+        <v>32130</v>
+      </c>
+      <c r="K10">
         <v>18000</v>
       </c>
     </row>
@@ -703,9 +828,21 @@
         <v>60000</v>
       </c>
       <c r="F11">
+        <v>0.036</v>
+      </c>
+      <c r="G11">
+        <v>2160</v>
+      </c>
+      <c r="H11">
+        <v>0.25</v>
+      </c>
+      <c r="I11">
         <v>15000</v>
       </c>
-      <c r="G11">
+      <c r="J11">
+        <v>42840</v>
+      </c>
+      <c r="K11">
         <v>24000</v>
       </c>
     </row>
@@ -734,9 +871,21 @@
         <v>219000</v>
       </c>
       <c r="F12">
+        <v>0.036</v>
+      </c>
+      <c r="G12">
+        <v>7883.999999999999</v>
+      </c>
+      <c r="H12">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="I12">
         <v>122640</v>
       </c>
-      <c r="G12">
+      <c r="J12">
+        <v>88475.99999999999</v>
+      </c>
+      <c r="K12">
         <v>17520</v>
       </c>
     </row>
@@ -765,9 +914,21 @@
         <v>122000</v>
       </c>
       <c r="F13">
+        <v>0.036</v>
+      </c>
+      <c r="G13">
+        <v>4392</v>
+      </c>
+      <c r="H13">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="I13">
         <v>68320</v>
       </c>
-      <c r="G13">
+      <c r="J13">
+        <v>49288</v>
+      </c>
+      <c r="K13">
         <v>9760</v>
       </c>
     </row>
@@ -796,9 +957,21 @@
         <v>95000</v>
       </c>
       <c r="F14">
+        <v>0.036</v>
+      </c>
+      <c r="G14">
+        <v>3420</v>
+      </c>
+      <c r="H14">
+        <v>0.25</v>
+      </c>
+      <c r="I14">
         <v>23750</v>
       </c>
-      <c r="G14">
+      <c r="J14">
+        <v>67830</v>
+      </c>
+      <c r="K14">
         <v>38000</v>
       </c>
     </row>
@@ -827,9 +1000,21 @@
         <v>45000</v>
       </c>
       <c r="F15">
+        <v>0.036</v>
+      </c>
+      <c r="G15">
+        <v>1620</v>
+      </c>
+      <c r="H15">
+        <v>0.25</v>
+      </c>
+      <c r="I15">
         <v>11250</v>
       </c>
-      <c r="G15">
+      <c r="J15">
+        <v>32130</v>
+      </c>
+      <c r="K15">
         <v>18000</v>
       </c>
     </row>
@@ -858,9 +1043,21 @@
         <v>22000</v>
       </c>
       <c r="F16">
+        <v>0.036</v>
+      </c>
+      <c r="G16">
+        <v>791.9999999999999</v>
+      </c>
+      <c r="H16">
+        <v>0.25</v>
+      </c>
+      <c r="I16">
         <v>5500</v>
       </c>
-      <c r="G16">
+      <c r="J16">
+        <v>15708</v>
+      </c>
+      <c r="K16">
         <v>8800</v>
       </c>
     </row>
@@ -889,9 +1086,21 @@
         <v>45000</v>
       </c>
       <c r="F17">
+        <v>0.036</v>
+      </c>
+      <c r="G17">
+        <v>1620</v>
+      </c>
+      <c r="H17">
+        <v>0.25</v>
+      </c>
+      <c r="I17">
         <v>11250</v>
       </c>
-      <c r="G17">
+      <c r="J17">
+        <v>32130</v>
+      </c>
+      <c r="K17">
         <v>18000</v>
       </c>
     </row>
@@ -920,9 +1129,21 @@
         <v>38000</v>
       </c>
       <c r="F18">
+        <v>0.036</v>
+      </c>
+      <c r="G18">
+        <v>1368</v>
+      </c>
+      <c r="H18">
+        <v>0.26</v>
+      </c>
+      <c r="I18">
         <v>9880</v>
       </c>
-      <c r="G18">
+      <c r="J18">
+        <v>26752</v>
+      </c>
+      <c r="K18">
         <v>17100</v>
       </c>
     </row>
@@ -951,9 +1172,21 @@
         <v>55000</v>
       </c>
       <c r="F19">
+        <v>0.036</v>
+      </c>
+      <c r="G19">
+        <v>1980</v>
+      </c>
+      <c r="H19">
+        <v>0.25</v>
+      </c>
+      <c r="I19">
         <v>13750</v>
       </c>
-      <c r="G19">
+      <c r="J19">
+        <v>39270</v>
+      </c>
+      <c r="K19">
         <v>22000</v>
       </c>
     </row>
@@ -982,9 +1215,21 @@
         <v>22000</v>
       </c>
       <c r="F20">
+        <v>0.036</v>
+      </c>
+      <c r="G20">
+        <v>791.9999999999999</v>
+      </c>
+      <c r="H20">
+        <v>0.25</v>
+      </c>
+      <c r="I20">
         <v>5500</v>
       </c>
-      <c r="G20">
+      <c r="J20">
+        <v>15708</v>
+      </c>
+      <c r="K20">
         <v>8800</v>
       </c>
     </row>
@@ -1013,9 +1258,21 @@
         <v>38000</v>
       </c>
       <c r="F21">
+        <v>0.036</v>
+      </c>
+      <c r="G21">
+        <v>1368</v>
+      </c>
+      <c r="H21">
+        <v>0.26</v>
+      </c>
+      <c r="I21">
         <v>9880</v>
       </c>
-      <c r="G21">
+      <c r="J21">
+        <v>26752</v>
+      </c>
+      <c r="K21">
         <v>17100</v>
       </c>
     </row>
@@ -1044,9 +1301,21 @@
         <v>38000</v>
       </c>
       <c r="F22">
+        <v>0.036</v>
+      </c>
+      <c r="G22">
+        <v>1368</v>
+      </c>
+      <c r="H22">
+        <v>0.26</v>
+      </c>
+      <c r="I22">
         <v>9880</v>
       </c>
-      <c r="G22">
+      <c r="J22">
+        <v>26752</v>
+      </c>
+      <c r="K22">
         <v>17100</v>
       </c>
     </row>
@@ -1075,9 +1344,21 @@
         <v>8000</v>
       </c>
       <c r="F23">
+        <v>0.036</v>
+      </c>
+      <c r="G23">
+        <v>288</v>
+      </c>
+      <c r="H23">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="I23">
         <v>4480</v>
       </c>
-      <c r="G23">
+      <c r="J23">
+        <v>3232</v>
+      </c>
+      <c r="K23">
         <v>640</v>
       </c>
     </row>
@@ -1106,9 +1387,21 @@
         <v>22000</v>
       </c>
       <c r="F24">
+        <v>0.036</v>
+      </c>
+      <c r="G24">
+        <v>791.9999999999999</v>
+      </c>
+      <c r="H24">
+        <v>0.25</v>
+      </c>
+      <c r="I24">
         <v>5500</v>
       </c>
-      <c r="G24">
+      <c r="J24">
+        <v>15708</v>
+      </c>
+      <c r="K24">
         <v>8800</v>
       </c>
     </row>
@@ -1137,9 +1430,21 @@
         <v>105000</v>
       </c>
       <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0.25</v>
+      </c>
+      <c r="I25">
         <v>26250</v>
       </c>
-      <c r="G25">
+      <c r="J25">
+        <v>78750</v>
+      </c>
+      <c r="K25">
         <v>42000</v>
       </c>
     </row>
@@ -1168,9 +1473,21 @@
         <v>62000</v>
       </c>
       <c r="F26">
+        <v>0.036</v>
+      </c>
+      <c r="G26">
+        <v>2232</v>
+      </c>
+      <c r="H26">
+        <v>0.25</v>
+      </c>
+      <c r="I26">
         <v>15500</v>
       </c>
-      <c r="G26">
+      <c r="J26">
+        <v>44268</v>
+      </c>
+      <c r="K26">
         <v>24800</v>
       </c>
     </row>
@@ -1199,9 +1516,21 @@
         <v>34000</v>
       </c>
       <c r="F27">
+        <v>0.036</v>
+      </c>
+      <c r="G27">
+        <v>1224</v>
+      </c>
+      <c r="H27">
+        <v>0.26</v>
+      </c>
+      <c r="I27">
         <v>8840</v>
       </c>
-      <c r="G27">
+      <c r="J27">
+        <v>23936</v>
+      </c>
+      <c r="K27">
         <v>15300</v>
       </c>
     </row>
@@ -1230,9 +1559,21 @@
         <v>60000</v>
       </c>
       <c r="F28">
+        <v>0.036</v>
+      </c>
+      <c r="G28">
+        <v>2160</v>
+      </c>
+      <c r="H28">
+        <v>0.25</v>
+      </c>
+      <c r="I28">
         <v>15000</v>
       </c>
-      <c r="G28">
+      <c r="J28">
+        <v>42840</v>
+      </c>
+      <c r="K28">
         <v>24000</v>
       </c>
     </row>
@@ -1261,9 +1602,21 @@
         <v>45000</v>
       </c>
       <c r="F29">
+        <v>0.036</v>
+      </c>
+      <c r="G29">
+        <v>1620</v>
+      </c>
+      <c r="H29">
+        <v>0.25</v>
+      </c>
+      <c r="I29">
         <v>11250</v>
       </c>
-      <c r="G29">
+      <c r="J29">
+        <v>32130</v>
+      </c>
+      <c r="K29">
         <v>18000</v>
       </c>
     </row>
@@ -1292,9 +1645,21 @@
         <v>22000</v>
       </c>
       <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0.25</v>
+      </c>
+      <c r="I30">
         <v>5500</v>
       </c>
-      <c r="G30">
+      <c r="J30">
+        <v>16500</v>
+      </c>
+      <c r="K30">
         <v>8800</v>
       </c>
     </row>
@@ -1323,9 +1688,21 @@
         <v>55000</v>
       </c>
       <c r="F31">
+        <v>0.036</v>
+      </c>
+      <c r="G31">
+        <v>1980</v>
+      </c>
+      <c r="H31">
+        <v>0.25</v>
+      </c>
+      <c r="I31">
         <v>13750</v>
       </c>
-      <c r="G31">
+      <c r="J31">
+        <v>39270</v>
+      </c>
+      <c r="K31">
         <v>22000</v>
       </c>
     </row>
@@ -1354,9 +1731,21 @@
         <v>60000</v>
       </c>
       <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0.26</v>
+      </c>
+      <c r="I32">
         <v>15600</v>
       </c>
-      <c r="G32">
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
         <v>-15600</v>
       </c>
     </row>
@@ -1385,9 +1774,21 @@
         <v>20000</v>
       </c>
       <c r="F33">
+        <v>0.036</v>
+      </c>
+      <c r="G33">
+        <v>720</v>
+      </c>
+      <c r="H33">
+        <v>0.25</v>
+      </c>
+      <c r="I33">
         <v>5000</v>
       </c>
-      <c r="G33">
+      <c r="J33">
+        <v>14280</v>
+      </c>
+      <c r="K33">
         <v>8000</v>
       </c>
     </row>
@@ -1416,9 +1817,21 @@
         <v>32000</v>
       </c>
       <c r="F34">
+        <v>0.036</v>
+      </c>
+      <c r="G34">
+        <v>1152</v>
+      </c>
+      <c r="H34">
+        <v>0.26</v>
+      </c>
+      <c r="I34">
         <v>8320</v>
       </c>
-      <c r="G34">
+      <c r="J34">
+        <v>22528</v>
+      </c>
+      <c r="K34">
         <v>14400</v>
       </c>
     </row>
@@ -1447,9 +1860,18 @@
         <v>8500</v>
       </c>
       <c r="F35">
+        <v>0.036</v>
+      </c>
+      <c r="G35">
+        <v>306</v>
+      </c>
+      <c r="I35">
         <v>0</v>
       </c>
-      <c r="G35">
+      <c r="J35">
+        <v>8194</v>
+      </c>
+      <c r="K35">
         <v>8194</v>
       </c>
     </row>
@@ -1478,9 +1900,21 @@
         <v>35000</v>
       </c>
       <c r="F36">
+        <v>0.036</v>
+      </c>
+      <c r="G36">
+        <v>1260</v>
+      </c>
+      <c r="H36">
+        <v>0.1166</v>
+      </c>
+      <c r="I36">
         <v>4081</v>
       </c>
-      <c r="G36">
+      <c r="J36">
+        <v>29659</v>
+      </c>
+      <c r="K36">
         <v>19250</v>
       </c>
     </row>
@@ -1509,9 +1943,21 @@
         <v>50000</v>
       </c>
       <c r="F37">
+        <v>0.036</v>
+      </c>
+      <c r="G37">
+        <v>1800</v>
+      </c>
+      <c r="H37">
+        <v>0.25</v>
+      </c>
+      <c r="I37">
         <v>12500</v>
       </c>
-      <c r="G37">
+      <c r="J37">
+        <v>35700</v>
+      </c>
+      <c r="K37">
         <v>20000</v>
       </c>
     </row>
@@ -1540,9 +1986,21 @@
         <v>15000</v>
       </c>
       <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0.25</v>
+      </c>
+      <c r="I38">
         <v>3750</v>
       </c>
-      <c r="G38">
+      <c r="J38">
+        <v>11250</v>
+      </c>
+      <c r="K38">
         <v>6000</v>
       </c>
     </row>
@@ -1571,9 +2029,21 @@
         <v>15000</v>
       </c>
       <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0.25</v>
+      </c>
+      <c r="I39">
         <v>3750</v>
       </c>
-      <c r="G39">
+      <c r="J39">
+        <v>11250</v>
+      </c>
+      <c r="K39">
         <v>6000</v>
       </c>
     </row>
@@ -1590,7 +2060,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Blower cabello largo</t>
+          <t>Shampoo Dirigido</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1599,29 +2069,41 @@
         </is>
       </c>
       <c r="E40">
-        <v>45000</v>
+        <v>22000</v>
       </c>
       <c r="F40">
-        <v>4081</v>
+        <v>0</v>
       </c>
       <c r="G40">
-        <v>24750</v>
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0.25</v>
+      </c>
+      <c r="I40">
+        <v>5500</v>
+      </c>
+      <c r="J40">
+        <v>16500</v>
+      </c>
+      <c r="K40">
+        <v>8800</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>01/11/2024 11:43</t>
+          <t>01/11/2024 10:50</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Sandra Giraldo</t>
+          <t>Katerine Rengifo</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Shampoo Dirigido</t>
+          <t>Spa Pedicure Tradicional</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1630,29 +2112,41 @@
         </is>
       </c>
       <c r="E41">
-        <v>22000</v>
+        <v>34000</v>
       </c>
       <c r="F41">
-        <v>5500</v>
+        <v>0.036</v>
       </c>
       <c r="G41">
-        <v>8800</v>
+        <v>1224</v>
+      </c>
+      <c r="H41">
+        <v>0.26</v>
+      </c>
+      <c r="I41">
+        <v>8840</v>
+      </c>
+      <c r="J41">
+        <v>23936</v>
+      </c>
+      <c r="K41">
+        <v>15300</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>01/11/2024 10:50</t>
+          <t>05/11/2024 20:46</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Katerine Rengifo</t>
+          <t>Carlos Andres Montana</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Spa Pedicure Tradicional</t>
+          <t>Queratina caballero - Desde</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1661,13 +2155,25 @@
         </is>
       </c>
       <c r="E42">
-        <v>34000</v>
+        <v>300000</v>
       </c>
       <c r="F42">
-        <v>8840</v>
+        <v>0.036</v>
       </c>
       <c r="G42">
-        <v>15300</v>
+        <v>10800</v>
+      </c>
+      <c r="H42">
+        <v>0.2016</v>
+      </c>
+      <c r="I42">
+        <v>60480</v>
+      </c>
+      <c r="J42">
+        <v>228720</v>
+      </c>
+      <c r="K42">
+        <v>20000</v>
       </c>
     </row>
     <row r="43">
@@ -1686,7 +2192,7 @@
           <t>Marinela Olaya</t>
         </is>
       </c>
-      <c r="G43">
+      <c r="K43">
         <v>-47500</v>
       </c>
     </row>
@@ -1706,7 +2212,7 @@
           <t>Marinela Olaya</t>
         </is>
       </c>
-      <c r="G44">
+      <c r="K44">
         <v>-20000</v>
       </c>
     </row>
@@ -1726,7 +2232,7 @@
           <t>Marinela Olaya</t>
         </is>
       </c>
-      <c r="G45">
+      <c r="K45">
         <v>-100000</v>
       </c>
     </row>
@@ -1746,7 +2252,7 @@
           <t>Marinela Olaya</t>
         </is>
       </c>
-      <c r="G46">
+      <c r="K46">
         <v>-40000</v>
       </c>
     </row>
@@ -1766,7 +2272,7 @@
           <t>Marinela Olaya</t>
         </is>
       </c>
-      <c r="G47">
+      <c r="K47">
         <v>-17000</v>
       </c>
     </row>
@@ -1786,7 +2292,7 @@
           <t>Marinela Olaya</t>
         </is>
       </c>
-      <c r="G48">
+      <c r="K48">
         <v>-20000</v>
       </c>
     </row>
@@ -1806,7 +2312,7 @@
           <t>Marinela Olaya</t>
         </is>
       </c>
-      <c r="G49">
+      <c r="K49">
         <v>-40000</v>
       </c>
     </row>
@@ -1826,7 +2332,7 @@
           <t>Marinela Olaya</t>
         </is>
       </c>
-      <c r="G50">
+      <c r="K50">
         <v>-31000</v>
       </c>
     </row>
@@ -1846,7 +2352,7 @@
           <t>Marinela Olaya</t>
         </is>
       </c>
-      <c r="G51">
+      <c r="K51">
         <v>-100000</v>
       </c>
     </row>
@@ -1866,7 +2372,7 @@
           <t>Marinela Olaya</t>
         </is>
       </c>
-      <c r="G52">
+      <c r="K52">
         <v>-20000</v>
       </c>
     </row>
@@ -1886,19 +2392,19 @@
           <t>Marinela Olaya</t>
         </is>
       </c>
-      <c r="G53">
+      <c r="K53">
         <v>-115254</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2024-11-16</t>
+          <t>2024-11-15</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Descuento - Anticipo - NA</t>
+          <t>Fondo - Ahorro - NA</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1906,8 +2412,28 @@
           <t>Marinela Olaya</t>
         </is>
       </c>
-      <c r="G54">
-        <v>-20000</v>
+      <c r="K54">
+        <v>-50000</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2024-10-05</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Descuento - Producto - Producto Semi</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Marinela Olaya</t>
+        </is>
+      </c>
+      <c r="K55">
+        <v>-15600</v>
       </c>
     </row>
   </sheetData>
